--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2283448.453362488</v>
+        <v>2282707.990541764</v>
       </c>
     </row>
     <row r="7">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>96.8035779795203</v>
       </c>
       <c r="G11" t="n">
-        <v>203.642986671138</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874618</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247068</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847005</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715469</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560309</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192619</v>
+        <v>15.72846453192611</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268838</v>
+        <v>25.9284794226883</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067132</v>
+        <v>13.35261136067123</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115043</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622712</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>183.3159405165623</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076491</v>
+        <v>106.5118524021715</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.9660947445918</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922474</v>
+        <v>48.11537914922465</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591527</v>
+        <v>35.53022006591519</v>
       </c>
       <c r="D13" t="n">
-        <v>16.8988719854998</v>
+        <v>16.89887198549971</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385661</v>
+        <v>14.71736161385653</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021868</v>
+        <v>13.7044469902186</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028134</v>
+        <v>36.04936959028126</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304861</v>
+        <v>28.51003926304852</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755893</v>
+        <v>16.96724755892992</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.4595793843737</v>
+        <v>35.45957938437361</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529497</v>
+        <v>88.37870840529489</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494639</v>
+        <v>95.26758743494631</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
         <v>120.4210422911154</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632459</v>
+        <v>93.99305435632451</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938223</v>
+        <v>86.86805231938214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C14" t="n">
         <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>218.1833116633967</v>
+        <v>125.7238761419519</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642676</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874612</v>
+        <v>65.87283976874609</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.18341408247068</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>196.0356574374223</v>
@@ -1670,7 +1670,7 @@
         <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715469</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560309</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>48.1839327633325</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.9284794226883</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067126</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115071</v>
+        <v>5.358526637115043</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622706</v>
+        <v>34.98135294622703</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027159</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475017</v>
+        <v>94.20712384475014</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>190.0059950270557</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922465</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591519</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549971</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385653</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021863</v>
+        <v>13.7044469902186</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028126</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304852</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892992</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437361</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529489</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494631</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200256</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632451</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938214</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155937</v>
       </c>
       <c r="G17" t="n">
         <v>177.4216299111878</v>
@@ -1904,7 +1904,7 @@
         <v>90.37276924401698</v>
       </c>
       <c r="W17" t="n">
-        <v>111.8614794912955</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X17" t="n">
         <v>132.3516114523511</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>73.46980356243114</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
@@ -1983,13 +1983,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>128.3832282987216</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2059,13 +2059,13 @@
         <v>48.92726692662033</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771008</v>
+        <v>195.1910385061424</v>
       </c>
       <c r="W19" t="n">
         <v>49.14350911047308</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4060878205416</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>59.41697813864843</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.25670399134605</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350527</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V22" t="n">
         <v>14.75815409771008</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>70.32715885379758</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2406,13 +2406,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>141.838737410666</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480168</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662033</v>
+        <v>229.3601513350526</v>
       </c>
       <c r="V25" t="n">
         <v>14.75815409771008</v>
       </c>
       <c r="W25" t="n">
-        <v>62.32957242027761</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.4891233714153</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048764</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>133.0443398814445</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901075</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2697,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>203.6853173316925</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885232</v>
       </c>
     </row>
     <row r="28">
@@ -2801,16 +2801,16 @@
         <v>231.8863097938097</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068733</v>
+        <v>41.09318678068737</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300667</v>
+        <v>47.5453805230067</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673126</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W29" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
         <v>219.687040400017</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>162.0696626068272</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2880,10 +2880,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.00546946691217</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048761</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453214</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>75.87966459901072</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.72892492502544</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348523</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017577</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454184</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H31" t="n">
-        <v>10.1825800173091</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863419</v>
+        <v>17.13212013863422</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955547</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920689</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W31" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058509</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364273</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="32">
@@ -3117,10 +3117,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>142.9815445215986</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>196.0263302441909</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="34">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>133.7234582135107</v>
+        <v>100.2361168440102</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4.42717144457812</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>28.07517485346268</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="U40" t="n">
-        <v>229.3601513350527</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V40" t="n">
         <v>14.75815409771005</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242685</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>103.9744713519567</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>11.90057203424195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>187.5607312372634</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1006484492991</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475654</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755497</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864471</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>185.7236316707066</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6217414589720637</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
         <v>166.6979539789397</v>
@@ -4110,19 +4110,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>5.02370976227946</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>84.01338665256877</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>120.1006484492991</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475625</v>
@@ -4201,7 +4201,7 @@
         <v>4.80964027385383</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1006484492991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>724.7905196486636</v>
+        <v>618.8269353115328</v>
       </c>
       <c r="C11" t="n">
-        <v>488.8750744584665</v>
+        <v>618.8269353115328</v>
       </c>
       <c r="D11" t="n">
-        <v>488.8750744584665</v>
+        <v>618.8269353115328</v>
       </c>
       <c r="E11" t="n">
-        <v>236.133893610437</v>
+        <v>618.8269353115328</v>
       </c>
       <c r="F11" t="n">
-        <v>236.133893610437</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="G11" t="n">
-        <v>30.43390707393399</v>
+        <v>235.1015857316204</v>
       </c>
       <c r="H11" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020962</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5060,31 +5060,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T11" t="n">
-        <v>1455.157131708067</v>
+        <v>1431.611097047739</v>
       </c>
       <c r="U11" t="n">
-        <v>1455.157131708067</v>
+        <v>1310.814205729661</v>
       </c>
       <c r="V11" t="n">
-        <v>1455.157131708067</v>
+        <v>1112.798390136305</v>
       </c>
       <c r="W11" t="n">
-        <v>1235.435548188168</v>
+        <v>1112.798390136305</v>
       </c>
       <c r="X11" t="n">
-        <v>1235.435548188168</v>
+        <v>872.3797036254398</v>
       </c>
       <c r="Y11" t="n">
-        <v>978.3432879625707</v>
+        <v>872.3797036254398</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.9118686632565</v>
+        <v>132.8177251628267</v>
       </c>
       <c r="C12" t="n">
-        <v>224.4588393821295</v>
+        <v>91.41176763191447</v>
       </c>
       <c r="D12" t="n">
-        <v>208.571501471093</v>
+        <v>75.524429720878</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158522</v>
+        <v>49.33404646563729</v>
       </c>
       <c r="F12" t="n">
-        <v>168.8936319929519</v>
+        <v>35.84656024273706</v>
       </c>
       <c r="G12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234744</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9717110634076</v>
+        <v>694.7085237331967</v>
       </c>
       <c r="N12" t="n">
-        <v>976.342225401374</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O12" t="n">
-        <v>1288.313760533885</v>
+        <v>1383.299658905641</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751016</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T12" t="n">
-        <v>1301.193037067619</v>
+        <v>1067.882194811034</v>
       </c>
       <c r="U12" t="n">
-        <v>1072.987254363112</v>
+        <v>839.6764121065265</v>
       </c>
       <c r="V12" t="n">
-        <v>970.8822178815835</v>
+        <v>604.5243038747838</v>
       </c>
       <c r="W12" t="n">
-        <v>716.6448611533818</v>
+        <v>483.3340188967969</v>
       </c>
       <c r="X12" t="n">
-        <v>641.8404326980638</v>
+        <v>375.7462891976338</v>
       </c>
       <c r="Y12" t="n">
-        <v>567.1272056833245</v>
+        <v>167.9859904326799</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.451641485803</v>
+        <v>194.4516414858024</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081108</v>
+        <v>158.5625303081103</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459898</v>
+        <v>141.4929626459894</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138114</v>
+        <v>126.6269408138111</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661158</v>
+        <v>112.7840650661155</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946796</v>
+        <v>76.37056042946777</v>
       </c>
       <c r="H13" t="n">
-        <v>47.5725409718431</v>
+        <v>47.572540971843</v>
       </c>
       <c r="I13" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J13" t="n">
-        <v>30.43390707393399</v>
+        <v>84.1567902022048</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418626</v>
+        <v>203.4791748685369</v>
       </c>
       <c r="L13" t="n">
-        <v>355.4987457100907</v>
+        <v>394.310870636765</v>
       </c>
       <c r="M13" t="n">
-        <v>560.0046495552822</v>
+        <v>598.8167744819566</v>
       </c>
       <c r="N13" t="n">
-        <v>768.1830836298225</v>
+        <v>806.995208556497</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624652</v>
+        <v>862.8204075624639</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206715</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856995</v>
+        <v>956.1300939856984</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877739</v>
+        <v>859.9002076877729</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493641</v>
+        <v>703.7485358493632</v>
       </c>
       <c r="V13" t="n">
-        <v>582.111119393692</v>
+        <v>582.1111193936911</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069461</v>
+        <v>425.7410211069452</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591434</v>
+        <v>330.7985419591427</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.053034565828</v>
+        <v>243.0530345658273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>916.6228412767335</v>
+        <v>453.3640211210791</v>
       </c>
       <c r="C14" t="n">
-        <v>680.7073960865366</v>
+        <v>217.4485759308822</v>
       </c>
       <c r="D14" t="n">
-        <v>455.4887692300009</v>
+        <v>217.4485759308822</v>
       </c>
       <c r="E14" t="n">
-        <v>455.4887692300009</v>
+        <v>217.4485759308822</v>
       </c>
       <c r="F14" t="n">
-        <v>455.4887692300009</v>
+        <v>217.4485759308822</v>
       </c>
       <c r="G14" t="n">
-        <v>235.1015857316204</v>
+        <v>90.45476164608225</v>
       </c>
       <c r="H14" t="n">
-        <v>30.43390707393399</v>
+        <v>90.45476164608225</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020973</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5294,34 +5294,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1334.360240389989</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="V14" t="n">
-        <v>1136.344424796633</v>
+        <v>1167.057059465751</v>
       </c>
       <c r="W14" t="n">
-        <v>916.6228412767335</v>
+        <v>947.3354759458513</v>
       </c>
       <c r="X14" t="n">
-        <v>916.6228412767335</v>
+        <v>706.9167894349861</v>
       </c>
       <c r="Y14" t="n">
-        <v>916.6228412767335</v>
+        <v>706.9167894349861</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9589404134712</v>
+        <v>298.6480981568863</v>
       </c>
       <c r="C15" t="n">
-        <v>357.5059111323441</v>
+        <v>257.2421406259741</v>
       </c>
       <c r="D15" t="n">
-        <v>208.5715014710929</v>
+        <v>208.5715014710928</v>
       </c>
       <c r="E15" t="n">
-        <v>49.33404646563736</v>
+        <v>182.3811182158521</v>
       </c>
       <c r="F15" t="n">
-        <v>35.8465602427371</v>
+        <v>35.84656024273706</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J15" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867616</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M15" t="n">
-        <v>887.3359378266948</v>
+        <v>575.3166944440778</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.723818564188</v>
+        <v>951.9362944840109</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.6953536967</v>
+        <v>1263.907829616522</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751016</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114378</v>
+        <v>1200.929266561249</v>
       </c>
       <c r="U15" t="n">
-        <v>1323.155145160084</v>
+        <v>1105.770555606956</v>
       </c>
       <c r="V15" t="n">
-        <v>1221.050108678556</v>
+        <v>1003.665519125428</v>
       </c>
       <c r="W15" t="n">
-        <v>1099.859823700569</v>
+        <v>749.4281623972263</v>
       </c>
       <c r="X15" t="n">
-        <v>907.934576198493</v>
+        <v>541.5766621916935</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.1742774335391</v>
+        <v>333.8163634267395</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858024</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081103</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459894</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138111</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661155</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946784</v>
+        <v>76.37056042946777</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184304</v>
+        <v>47.572540971843</v>
       </c>
       <c r="I16" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220477</v>
+        <v>84.1567902022048</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383615</v>
+        <v>409.2216288383616</v>
       </c>
       <c r="M16" t="n">
-        <v>613.7275326835531</v>
+        <v>532.1693508240799</v>
       </c>
       <c r="N16" t="n">
-        <v>821.9059667580935</v>
+        <v>740.3477848986203</v>
       </c>
       <c r="O16" t="n">
-        <v>1008.130600786446</v>
+        <v>926.5724189269727</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856984</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877729</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493632</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936911</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069452</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591427</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658273</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810894</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852413</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230544</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326555</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5537,13 +5537,13 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5558,7 +5558,7 @@
         <v>1169.663137131896</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>353.8213460163123</v>
+        <v>351.421494328176</v>
       </c>
       <c r="C18" t="n">
-        <v>179.3683167351853</v>
+        <v>176.968465047049</v>
       </c>
       <c r="D18" t="n">
-        <v>30.43390707393399</v>
+        <v>176.968465047049</v>
       </c>
       <c r="E18" t="n">
-        <v>30.43390707393399</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F18" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G18" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I18" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K18" t="n">
         <v>223.0613211674321</v>
@@ -5601,43 +5601,43 @@
         <v>510.7163377867616</v>
       </c>
       <c r="M18" t="n">
-        <v>887.3359378266948</v>
+        <v>887.3359378266947</v>
       </c>
       <c r="N18" t="n">
-        <v>1106.412173483915</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O18" t="n">
-        <v>1418.383708616427</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="P18" t="n">
-        <v>1418.383708616427</v>
+        <v>1497.337131029442</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1447.483430906365</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U18" t="n">
-        <v>1219.277648201857</v>
+        <v>924.01392990944</v>
       </c>
       <c r="V18" t="n">
-        <v>984.1255399701147</v>
+        <v>688.8618216776972</v>
       </c>
       <c r="W18" t="n">
-        <v>729.8881832419131</v>
+        <v>559.18179309313</v>
       </c>
       <c r="X18" t="n">
-        <v>522.0366830363803</v>
+        <v>559.18179309313</v>
       </c>
       <c r="Y18" t="n">
-        <v>522.0366830363803</v>
+        <v>351.421494328176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M19" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P19" t="n">
         <v>326.6579621681116</v>
@@ -5704,19 +5704,19 @@
         <v>326.6579621681116</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240507</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633104</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326555</v>
@@ -5774,25 +5774,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
         <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y20" t="n">
         <v>1019.301067000648</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>222.1504691355965</v>
+        <v>317.8280416542032</v>
       </c>
       <c r="C21" t="n">
-        <v>222.1504691355965</v>
+        <v>317.8280416542032</v>
       </c>
       <c r="D21" t="n">
-        <v>222.1504691355965</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E21" t="n">
-        <v>222.1504691355965</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F21" t="n">
-        <v>222.1504691355965</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G21" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I21" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K21" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>318.0889236932636</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="M21" t="n">
-        <v>496.4109802811681</v>
+        <v>599.6809212073651</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211013</v>
+        <v>976.3005212472982</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.27205637981</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.653649542624</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
         <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1268.976064197888</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1127.151733066027</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="U21" t="n">
-        <v>1127.151733066027</v>
+        <v>1008.058183802425</v>
       </c>
       <c r="V21" t="n">
-        <v>891.9996248342848</v>
+        <v>948.0410341674267</v>
       </c>
       <c r="W21" t="n">
-        <v>637.7622681060832</v>
+        <v>693.8036774392251</v>
       </c>
       <c r="X21" t="n">
-        <v>429.9107679005504</v>
+        <v>693.8036774392251</v>
       </c>
       <c r="Y21" t="n">
-        <v>222.1504691355965</v>
+        <v>486.0433786742712</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M22" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P22" t="n">
         <v>326.6579621681116</v>
@@ -5932,28 +5932,28 @@
         <v>326.6579621681116</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681116</v>
+        <v>157.793133463984</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681116</v>
+        <v>157.793133463984</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681116</v>
+        <v>157.793133463984</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765436</v>
+        <v>108.3716517199231</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633105</v>
+        <v>93.46442535859977</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>43.82451716620272</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>43.82451716620272</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>43.82451716620272</v>
       </c>
     </row>
     <row r="23">
@@ -5981,40 +5981,40 @@
         <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108021027</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326563</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L23" t="n">
-        <v>485.380670655029</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241029</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T23" t="n">
         <v>1521.695353696699</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.3302529517334</v>
+        <v>623.8096765378582</v>
       </c>
       <c r="C24" t="n">
-        <v>481.8772236706064</v>
+        <v>449.3566472567312</v>
       </c>
       <c r="D24" t="n">
-        <v>332.9428140093552</v>
+        <v>300.4222375954799</v>
       </c>
       <c r="E24" t="n">
-        <v>173.7053590038997</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F24" t="n">
-        <v>30.43390707393399</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393399</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J24" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K24" t="n">
         <v>198.6970944041448</v>
@@ -6075,43 +6075,43 @@
         <v>486.3521110234743</v>
       </c>
       <c r="M24" t="n">
-        <v>862.9717110634075</v>
+        <v>862.9717110634074</v>
       </c>
       <c r="N24" t="n">
-        <v>1239.591311103341</v>
+        <v>873.0305803211008</v>
       </c>
       <c r="O24" t="n">
-        <v>1239.591311103341</v>
+        <v>1185.002115453612</v>
       </c>
       <c r="P24" t="n">
-        <v>1472.972904266155</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T24" t="n">
-        <v>1521.6953536967</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U24" t="n">
-        <v>1521.6953536967</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="V24" t="n">
-        <v>1286.543245464957</v>
+        <v>917.0676043822052</v>
       </c>
       <c r="W24" t="n">
-        <v>1032.305888736755</v>
+        <v>902.6075094985672</v>
       </c>
       <c r="X24" t="n">
-        <v>1032.305888736755</v>
+        <v>902.6075094985672</v>
       </c>
       <c r="Y24" t="n">
-        <v>824.5455899718015</v>
+        <v>694.8472107336133</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M25" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P25" t="n">
         <v>326.6579621681116</v>
@@ -6178,19 +6178,19 @@
         <v>326.6579621681116</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765435</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633104</v>
       </c>
       <c r="W25" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X25" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.3700900018409</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C26" t="n">
         <v>1250.781708514024</v>
@@ -6209,16 +6209,16 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601854</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754849</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450484</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906317</v>
@@ -6227,7 +6227,7 @@
         <v>234.1884011210063</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491199</v>
       </c>
       <c r="L26" t="n">
         <v>955.9037100471601</v>
@@ -6245,7 +6245,7 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
@@ -6257,7 +6257,7 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
         <v>2364.919526790957</v>
@@ -6266,7 +6266,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>535.5511296987607</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="D27" t="n">
         <v>361.0981004176337</v>
@@ -6303,10 +6303,10 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K27" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L27" t="n">
         <v>535.6085181518908</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1834.348266168098</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.702140310511</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.550032078768</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.312675350567</v>
+        <v>814.1501965694274</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.461175145034</v>
+        <v>608.4074517899401</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>552.2068098719075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209084</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992277</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992277</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992277</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F28" t="n">
         <v>83.51244133992277</v>
@@ -6379,55 +6379,55 @@
         <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>56.67269700900454</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906317</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>207.7034149602738</v>
+        <v>132.3734726361005</v>
       </c>
       <c r="L28" t="n">
-        <v>416.679295381784</v>
+        <v>192.8057333819431</v>
       </c>
       <c r="M28" t="n">
-        <v>514.6480962803166</v>
+        <v>266.9122022047492</v>
       </c>
       <c r="N28" t="n">
-        <v>740.9707150081391</v>
+        <v>493.2348209325716</v>
       </c>
       <c r="O28" t="n">
-        <v>796.795914014106</v>
+        <v>556.7910181444807</v>
       </c>
       <c r="P28" t="n">
-        <v>821.0433336359699</v>
+        <v>729.5820574420122</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359699</v>
+        <v>811.478253459803</v>
       </c>
       <c r="R28" t="n">
-        <v>803.7381617787637</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438592</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426401</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U28" t="n">
-        <v>517.6229363009368</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419711</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W28" t="n">
-        <v>276.6405917519318</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X28" t="n">
-        <v>200.2106977008357</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9777754042269</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
@@ -6446,31 +6446,31 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028716</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601854</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G29" t="n">
         <v>282.9894504754848</v>
       </c>
       <c r="H29" t="n">
-        <v>96.8343569145045</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210059</v>
+        <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
         <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471601</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
@@ -6494,16 +6494,16 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824715</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>769.3395489225495</v>
+        <v>537.950981386897</v>
       </c>
       <c r="C30" t="n">
-        <v>594.8865196414225</v>
+        <v>363.49795210577</v>
       </c>
       <c r="D30" t="n">
-        <v>445.9521099801713</v>
+        <v>214.5635424445187</v>
       </c>
       <c r="E30" t="n">
-        <v>286.7146549747158</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F30" t="n">
-        <v>140.1800970016007</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G30" t="n">
         <v>55.32608743906317</v>
@@ -6540,10 +6540,10 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K30" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L30" t="n">
         <v>535.6085181518908</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T30" t="n">
-        <v>1919.202275730635</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U30" t="n">
-        <v>1842.556149873049</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1607.404041641306</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W30" t="n">
-        <v>1353.166684913104</v>
+        <v>965.7098534163486</v>
       </c>
       <c r="X30" t="n">
-        <v>1145.315184707571</v>
+        <v>909.418010057737</v>
       </c>
       <c r="Y30" t="n">
-        <v>937.5548859426176</v>
+        <v>701.657711292783</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209083</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C31" t="n">
-        <v>83.5124413399227</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D31" t="n">
-        <v>83.5124413399227</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E31" t="n">
-        <v>83.5124413399227</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F31" t="n">
-        <v>83.5124413399227</v>
+        <v>83.51244133992277</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998145</v>
+        <v>65.61152179998149</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906317</v>
+        <v>56.67269700900454</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32608743906317</v>
+        <v>56.67269700900454</v>
       </c>
       <c r="K31" t="n">
-        <v>59.15979528460635</v>
+        <v>73.45704718416602</v>
       </c>
       <c r="L31" t="n">
-        <v>119.5920560304489</v>
+        <v>282.4329276056761</v>
       </c>
       <c r="M31" t="n">
-        <v>284.2082805868578</v>
+        <v>356.5393964284822</v>
       </c>
       <c r="N31" t="n">
-        <v>361.9872796390127</v>
+        <v>582.8620151563047</v>
       </c>
       <c r="O31" t="n">
-        <v>566.3560983206471</v>
+        <v>787.230833837939</v>
       </c>
       <c r="P31" t="n">
-        <v>739.1471376181787</v>
+        <v>811.478253459803</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359696</v>
+        <v>811.478253459803</v>
       </c>
       <c r="R31" t="n">
-        <v>803.7381617787634</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438589</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426397</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U31" t="n">
-        <v>517.6229363009365</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V31" t="n">
-        <v>414.498104941971</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W31" t="n">
-        <v>276.6405917519317</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2106977008356</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9777754042267</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
@@ -6683,13 +6683,13 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.847071002872</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601856</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754849</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
         <v>96.83435691450498</v>
@@ -6719,28 +6719,28 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
         <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y32" t="n">
         <v>1703.224751824715</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>674.0108546177786</v>
+        <v>533.4423742727149</v>
       </c>
       <c r="C33" t="n">
-        <v>499.5578253366515</v>
+        <v>358.9893449915879</v>
       </c>
       <c r="D33" t="n">
-        <v>499.5578253366515</v>
+        <v>358.9893449915879</v>
       </c>
       <c r="E33" t="n">
-        <v>340.320370331196</v>
+        <v>199.7518899861324</v>
       </c>
       <c r="F33" t="n">
-        <v>193.785812358081</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G33" t="n">
         <v>55.32608743906317</v>
@@ -6777,10 +6777,10 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K33" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L33" t="n">
         <v>535.6085181518908</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1767.642618883714</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U33" t="n">
-        <v>1690.996493026127</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V33" t="n">
-        <v>1455.844384794385</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W33" t="n">
-        <v>1257.837990608333</v>
+        <v>965.7098534163486</v>
       </c>
       <c r="X33" t="n">
-        <v>1049.9864904028</v>
+        <v>757.8583532108157</v>
       </c>
       <c r="Y33" t="n">
-        <v>842.2261916378466</v>
+        <v>701.657711292783</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.31218528794295</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C34" t="n">
-        <v>78.93565920695727</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D34" t="n">
-        <v>78.93565920695727</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E34" t="n">
         <v>78.93565920695727</v>
@@ -6862,46 +6862,46 @@
         <v>207.7034149602738</v>
       </c>
       <c r="L34" t="n">
-        <v>268.1356757061164</v>
+        <v>416.6792953817839</v>
       </c>
       <c r="M34" t="n">
-        <v>490.78576420459</v>
+        <v>505.0830161041503</v>
       </c>
       <c r="N34" t="n">
-        <v>717.1083829324124</v>
+        <v>582.8620151563052</v>
       </c>
       <c r="O34" t="n">
-        <v>772.9335819383792</v>
+        <v>787.2308338379396</v>
       </c>
       <c r="P34" t="n">
-        <v>797.1810015602432</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.4665515030049</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R34" t="n">
-        <v>799.1613796457985</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S34" t="n">
-        <v>728.4025421108939</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T34" t="n">
-        <v>650.6852409096748</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U34" t="n">
-        <v>513.0461541679715</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V34" t="n">
-        <v>409.9213228090058</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W34" t="n">
-        <v>272.0638096189664</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X34" t="n">
-        <v>195.6339155678703</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4009932712614</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810894</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E35" t="n">
         <v>478.7938061693742</v>
@@ -6932,16 +6932,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393428</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020981</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550285</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
         <v>789.5552979241024</v>
@@ -6971,7 +6971,7 @@
         <v>1507.62865247297</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
         <v>1303.351633548412</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>527.922482114167</v>
+        <v>353.8213460163123</v>
       </c>
       <c r="C36" t="n">
-        <v>527.922482114167</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D36" t="n">
-        <v>527.922482114167</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E36" t="n">
-        <v>368.6850271087114</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F36" t="n">
-        <v>222.1504691355964</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G36" t="n">
-        <v>222.1504691355964</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722128</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K36" t="n">
-        <v>54.79813383722128</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L36" t="n">
-        <v>342.4531504565508</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M36" t="n">
-        <v>719.0727504964839</v>
+        <v>694.7085237331967</v>
       </c>
       <c r="N36" t="n">
-        <v>976.3422254013738</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O36" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.695353696699</v>
@@ -7041,25 +7041,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.695353696699</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T36" t="n">
-        <v>1320.601484309847</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U36" t="n">
-        <v>1185.527284094179</v>
+        <v>1050.971109741211</v>
       </c>
       <c r="V36" t="n">
-        <v>950.3751758624367</v>
+        <v>815.8190015094679</v>
       </c>
       <c r="W36" t="n">
-        <v>696.1378191342351</v>
+        <v>561.5816447812663</v>
       </c>
       <c r="X36" t="n">
-        <v>696.1378191342351</v>
+        <v>561.5816447812663</v>
       </c>
       <c r="Y36" t="n">
-        <v>696.1378191342351</v>
+        <v>353.8213460163123</v>
       </c>
     </row>
     <row r="37">
@@ -7096,10 +7096,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881258</v>
@@ -7120,22 +7120,22 @@
         <v>326.6579621681116</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240506</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y37" t="n">
         <v>30.43390707393399</v>
@@ -7172,16 +7172,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>343.786952444312</v>
+        <v>254.3312088865825</v>
       </c>
       <c r="C39" t="n">
-        <v>343.786952444312</v>
+        <v>254.3312088865825</v>
       </c>
       <c r="D39" t="n">
-        <v>343.786952444312</v>
+        <v>254.3312088865825</v>
       </c>
       <c r="E39" t="n">
-        <v>343.786952444312</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="F39" t="n">
-        <v>197.252394471197</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="G39" t="n">
-        <v>58.79266955217912</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H39" t="n">
-        <v>58.79266955217912</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I39" t="n">
         <v>30.43390707393399</v>
@@ -7254,49 +7254,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K39" t="n">
-        <v>30.43390707393399</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331967</v>
+        <v>575.3166944440779</v>
       </c>
       <c r="N39" t="n">
-        <v>976.3422254013738</v>
+        <v>951.9362944840111</v>
       </c>
       <c r="O39" t="n">
-        <v>1288.313760533885</v>
+        <v>1263.907829616523</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.695353696699</v>
+        <v>1497.289422779337</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S39" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T39" t="n">
-        <v>1437.357835893786</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U39" t="n">
-        <v>1209.152053189278</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="V39" t="n">
-        <v>973.9999449575355</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="W39" t="n">
-        <v>719.7625882293339</v>
+        <v>838.1583448771373</v>
       </c>
       <c r="X39" t="n">
-        <v>719.7625882293339</v>
+        <v>630.3068446716045</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.0022894643801</v>
+        <v>422.5465459066506</v>
       </c>
     </row>
     <row r="40">
@@ -7333,10 +7333,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881258</v>
@@ -7360,7 +7360,7 @@
         <v>326.6579621681116</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U40" t="n">
         <v>94.98104162765429</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829031</v>
+        <v>976.430644582903</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416665</v>
+        <v>830.5994560416664</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340913</v>
+        <v>695.465085834091</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350223</v>
+        <v>532.8081616350221</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445899</v>
+        <v>344.9535852445896</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890036</v>
+        <v>63.97560257890034</v>
       </c>
       <c r="J41" t="n">
-        <v>139.9876132094132</v>
+        <v>141.6880150561449</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1722804618593</v>
+        <v>307.8726823085909</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842319</v>
+        <v>566.3160846309636</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533058</v>
+        <v>993.3830543982476</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250562</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316132</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>627.6766097622565</v>
+        <v>598.9824929140068</v>
       </c>
       <c r="C42" t="n">
-        <v>627.6766097622565</v>
+        <v>424.5294636328798</v>
       </c>
       <c r="D42" t="n">
-        <v>478.7422001010053</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="E42" t="n">
         <v>319.5047450955498</v>
@@ -7479,13 +7479,13 @@
         <v>172.9701871224348</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
         <v>58.87468896670417</v>
@@ -7494,46 +7494,46 @@
         <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9546183660047</v>
+        <v>275.573025203191</v>
       </c>
       <c r="M42" t="n">
-        <v>896.6136765904673</v>
+        <v>663.2320834276536</v>
       </c>
       <c r="N42" t="n">
-        <v>1310.23992995806</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.211465090571</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.211465090571</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1641.18559236793</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1641.18559236793</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T42" t="n">
-        <v>1641.18559236793</v>
+        <v>1524.429240783992</v>
       </c>
       <c r="U42" t="n">
-        <v>1412.979809663423</v>
+        <v>1296.223458079484</v>
       </c>
       <c r="V42" t="n">
-        <v>1400.959029830855</v>
+        <v>1061.071349847741</v>
       </c>
       <c r="W42" t="n">
-        <v>1211.503745752811</v>
+        <v>806.8339931195396</v>
       </c>
       <c r="X42" t="n">
-        <v>1003.652245547278</v>
+        <v>598.9824929140068</v>
       </c>
       <c r="Y42" t="n">
-        <v>795.8919467823246</v>
+        <v>598.9824929140068</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
         <v>38.34417004896006</v>
@@ -7594,25 +7594,25 @@
         <v>330.7345172975945</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4207309851712</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="T43" t="n">
-        <v>203.2751013362059</v>
+        <v>324.5888876486292</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>258.5214724591797</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524679</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225913</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890036</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>139.9876132094132</v>
+        <v>64.82915620969243</v>
       </c>
       <c r="K44" t="n">
-        <v>306.1722804618593</v>
+        <v>231.0138234621384</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842319</v>
+        <v>489.4572257845111</v>
       </c>
       <c r="M44" t="n">
-        <v>868.7903100533058</v>
+        <v>916.5241955517952</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250562</v>
+        <v>1210.988688749052</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316132</v>
+        <v>1443.855521814622</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
@@ -7679,19 +7679,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>653.8232510578616</v>
+        <v>347.4232164035618</v>
       </c>
       <c r="C45" t="n">
-        <v>479.3702217767346</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="D45" t="n">
-        <v>479.3702217767346</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="E45" t="n">
-        <v>320.1327667712791</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="F45" t="n">
-        <v>173.5982087981641</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
-        <v>35.13848387914624</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670417</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>58.87468896670417</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5297055860337</v>
+        <v>275.573025203191</v>
       </c>
       <c r="M45" t="n">
-        <v>734.1887638104963</v>
+        <v>663.2320834276536</v>
       </c>
       <c r="N45" t="n">
-        <v>1147.815017178089</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
-        <v>1459.7865523106</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1693.168145473414</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.141338474945</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1356.047469088093</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.97301478276</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1115.820906551017</v>
+        <v>808.3520603489292</v>
       </c>
       <c r="W45" t="n">
-        <v>861.5835498228155</v>
+        <v>723.4900536291627</v>
       </c>
       <c r="X45" t="n">
-        <v>861.5835498228155</v>
+        <v>515.6385534236299</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.8232510578616</v>
+        <v>515.6385534236299</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
         <v>38.34417004896006</v>
@@ -7831,25 +7831,25 @@
         <v>330.7345172975945</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975945</v>
+        <v>209.4207309851712</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486292</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591798</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
-        <v>226.968312652468</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146824</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158402</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
   </sheetData>
@@ -8769,25 +8769,25 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751719</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N12" t="n">
-        <v>176.0537490611029</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>118.1622196984937</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565158</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N15" t="n">
-        <v>387.182401989918</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>82.72378564719553</v>
+        <v>238.7600270612401</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N18" t="n">
-        <v>282.8272049391375</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661687</v>
       </c>
       <c r="P18" t="n">
-        <v>82.72378564719553</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3263560055304</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751719</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565158</v>
       </c>
       <c r="M21" t="n">
-        <v>254.2535469453958</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N21" t="n">
-        <v>441.961916436827</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7642160932254</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>71.6985520103222</v>
       </c>
       <c r="O24" t="n">
-        <v>78.73955651661686</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.9366860694574</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
         <v>94.50242152751719</v>
@@ -10674,7 +10674,7 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>321.4062344822378</v>
+        <v>241.6613674953837</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751719</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565158</v>
       </c>
       <c r="M39" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>346.0165645461642</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>130.3745461571521</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>364.9430982830149</v>
+        <v>129.2041152902738</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>82.72378564719553</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>94.50242152751719</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>153.8144453542004</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.4038732077247</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>178.3558667294785</v>
       </c>
       <c r="G11" t="n">
-        <v>79.44153143345515</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642684</v>
+        <v>59.42064602642675</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874609</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247076</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457565</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
         <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>64.90120644119642</v>
+        <v>157.3606419626411</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642678</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813591.493372116</v>
+        <v>813591.4933721161</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817013.4937507074</v>
+        <v>817013.4937507075</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817013.4937507074</v>
+        <v>817013.4937507075</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.6133132601</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="E2" t="n">
-        <v>650312.2014943064</v>
+        <v>650312.2014943062</v>
       </c>
       <c r="F2" t="n">
-        <v>650312.2014943066</v>
+        <v>650312.2014943063</v>
       </c>
       <c r="G2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="H2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="J2" t="n">
         <v>759463.6371244615</v>
       </c>
       <c r="K2" t="n">
+        <v>759463.6371244615</v>
+      </c>
+      <c r="L2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="M2" t="n">
         <v>759463.6371244616</v>
       </c>
-      <c r="L2" t="n">
-        <v>759463.6371244621</v>
-      </c>
-      <c r="M2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="N2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="O2" t="n">
         <v>759463.6371244616</v>
       </c>
-      <c r="O2" t="n">
-        <v>759463.6371244614</v>
-      </c>
       <c r="P2" t="n">
-        <v>759463.6371244612</v>
+        <v>759463.6371244615</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472424</v>
+        <v>84530.31055472423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.0989423952</v>
+        <v>87131.09894239517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510447</v>
+        <v>34584.19673510454</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
-        <v>368260.9042823385</v>
+        <v>368260.9042823386</v>
       </c>
       <c r="P4" t="n">
-        <v>368260.9042823385</v>
+        <v>368260.9042823386</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678312</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678312</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561137</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561136</v>
@@ -26506,10 +26506,10 @@
         <v>45806.17671431452</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368936</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293304.5038705845</v>
+        <v>293300.0902927164</v>
       </c>
       <c r="C6" t="n">
-        <v>293304.5038705848</v>
+        <v>293300.0902927162</v>
       </c>
       <c r="D6" t="n">
-        <v>293304.5038705844</v>
+        <v>293300.0902927165</v>
       </c>
       <c r="E6" t="n">
-        <v>-8106.254731036635</v>
+        <v>-8401.258611118365</v>
       </c>
       <c r="F6" t="n">
-        <v>311099.8901879537</v>
+        <v>310804.886307872</v>
       </c>
       <c r="G6" t="n">
-        <v>259721.8496140078</v>
+        <v>259721.8496140082</v>
       </c>
       <c r="H6" t="n">
-        <v>344252.1601687321</v>
+        <v>344252.1601687323</v>
       </c>
       <c r="I6" t="n">
-        <v>344252.1601687319</v>
+        <v>344252.1601687316</v>
       </c>
       <c r="J6" t="n">
         <v>217321.6318749038</v>
       </c>
       <c r="K6" t="n">
-        <v>334237.6900361145</v>
+        <v>334237.6900361144</v>
       </c>
       <c r="L6" t="n">
-        <v>249707.3794813908</v>
+        <v>249707.3794813907</v>
       </c>
       <c r="M6" t="n">
-        <v>257121.0612263367</v>
+        <v>257121.0612263363</v>
       </c>
       <c r="N6" t="n">
-        <v>344252.1601687315</v>
+        <v>344252.1601687319</v>
       </c>
       <c r="O6" t="n">
         <v>309099.5904033291</v>
       </c>
       <c r="P6" t="n">
-        <v>343683.7871384334</v>
+        <v>343683.7871384335</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L2" t="n">
         <v>150.044060278452</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
         <v>691.5760929882896</v>
@@ -26826,10 +26826,10 @@
         <v>380.4238384241748</v>
       </c>
       <c r="O4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>105.6628881934053</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504667</v>
+        <v>44.38117208504676</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411204</v>
+        <v>27.9016979741121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641147</v>
+        <v>311.1522545641148</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006016</v>
+        <v>69.27158386006005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853613</v>
+        <v>50.95693911853624</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>105.6628881934053</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504667</v>
+        <v>44.38117208504676</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
         <v>131.7166010327126</v>
@@ -28181,7 +28181,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="T12" t="n">
-        <v>15.76699017642187</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>131.7166010327126</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>131.7166010327126</v>
+        <v>99.261132801306</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,10 +28269,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45106251930778</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.655229111908</v>
       </c>
       <c r="L13" t="n">
         <v>131.7166010327126</v>
@@ -28284,7 +28284,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
-        <v>39.20416659260188</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>131.7166010327126</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>99.26113280130625</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>131.7166010327126</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>131.7166010327126</v>
@@ -28466,10 +28466,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15.76699017642181</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327126</v>
+        <v>49.33459915445675</v>
       </c>
       <c r="N16" t="n">
         <v>131.7166010327126</v>
@@ -28524,10 +28524,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
-        <v>49.33459915445728</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
@@ -28691,10 +28691,10 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>125.6131271305531</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>123.311754862198</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170863</v>
@@ -28779,13 +28779,13 @@
         <v>237.3794892261179</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768562</v>
       </c>
       <c r="W19" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
-        <v>45.27677098060479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>58.67684287244265</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>173.3836090107768</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5752761905912</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170863</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
@@ -29013,7 +29013,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.9466048176856</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
         <v>237.3794892261179</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>96.20602479606976</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29126,13 +29126,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.23047498271788</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011626</v>
@@ -29165,10 +29165,10 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9237248774628</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -29196,7 +29196,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170863</v>
@@ -29250,13 +29250,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768565</v>
       </c>
       <c r="V25" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>224.1934259163134</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.087667871785015</v>
+      </c>
+      <c r="Y27" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T27" t="n">
-        <v>66.03859081153973</v>
-      </c>
-      <c r="U27" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,31 +29451,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930778</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>24.10336573305716</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>7.809089096911379</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745123</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.463521043040174</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,10 +29600,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>53.06965820291551</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
         <v>109.6433667609296</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
         <v>77.45106251930778</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>13.08145689860434</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
-        <v>91.42399569050784</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.0440602784521</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="32">
@@ -29788,13 +29788,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784526</v>
       </c>
       <c r="Q32" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0440602784523</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S32" t="n">
         <v>150.044060278452</v>
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.087667871785328</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
         <v>109.6433667609296</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>55.66865291672866</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29910,10 +29910,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
         <v>150.044060278452</v>
@@ -29934,22 +29934,22 @@
         <v>150.044060278452</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
+        <v>14.44166858541449</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="N34" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.8009834349883</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>92.20026666395211</v>
+        <v>125.6876080334526</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957513</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
@@ -30210,7 +30210,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.15176894366246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30308,10 +30308,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>153.2179090108228</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>52.08085482665358</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170863</v>
@@ -30432,10 +30432,10 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T40" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922657</v>
       </c>
       <c r="U40" t="n">
-        <v>56.9466048176856</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V40" t="n">
         <v>237.379489226118</v>
@@ -30481,7 +30481,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J41" t="n">
-        <v>46.15486527700742</v>
+        <v>47.87244289996872</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>43.47059421268202</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>64.13425192365619</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S43" t="n">
-        <v>99.99466098870843</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
         <v>220.9000151151833</v>
@@ -30678,7 +30678,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658844</v>
       </c>
       <c r="X43" t="n">
         <v>220.9000151151833</v>
@@ -30715,10 +30715,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
-        <v>46.15486527700742</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,16 +30736,16 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>77.63521095601246</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30782,16 +30782,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.0216253019575</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
         <v>80.15602968011626</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,19 +30830,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>167.6815965083508</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
-        <v>220.0953094380075</v>
+        <v>99.99466098870843</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -30921,7 +30921,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.48400490279572</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H11" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881182</v>
+        <v>63.8077387288118</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M11" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603007</v>
       </c>
       <c r="N11" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749703</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483464</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935443</v>
+        <v>68.0037764593544</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782757</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095294</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T12" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U12" t="n">
         <v>0.01765720351203595</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615715</v>
       </c>
       <c r="J13" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K13" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799861</v>
+        <v>34.4324731279986</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424315</v>
@@ -31944,13 +31944,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T13" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225467</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126651</v>
@@ -31999,16 +31999,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K14" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M14" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O14" t="n">
         <v>84.51705345749703</v>
@@ -32017,16 +32017,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R14" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S14" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U14" t="n">
         <v>0.04012947022634897</v>
@@ -32072,43 +32072,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I15" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M15" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P15" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R15" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,13 +32151,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J16" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L16" t="n">
         <v>33.45266236174709</v>
@@ -32172,19 +32172,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R16" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262827</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126651</v>
@@ -32236,16 +32236,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K17" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M17" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O17" t="n">
         <v>84.51705345749703</v>
@@ -32254,16 +32254,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R17" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S17" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U17" t="n">
         <v>0.04012947022634897</v>
@@ -32309,43 +32309,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I18" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M18" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P18" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R18" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,13 +32388,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J19" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L19" t="n">
         <v>33.45266236174709</v>
@@ -32409,19 +32409,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R19" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262827</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126651</v>
@@ -32473,16 +32473,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K20" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M20" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O20" t="n">
         <v>84.51705345749703</v>
@@ -32491,16 +32491,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R20" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S20" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U20" t="n">
         <v>0.04012947022634897</v>
@@ -32546,43 +32546,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I21" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M21" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P21" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R21" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,13 +32625,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J22" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L22" t="n">
         <v>33.45266236174709</v>
@@ -32646,19 +32646,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R22" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262827</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126651</v>
@@ -32710,16 +32710,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K23" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M23" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O23" t="n">
         <v>84.51705345749703</v>
@@ -32728,16 +32728,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R23" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S23" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U23" t="n">
         <v>0.04012947022634897</v>
@@ -32783,43 +32783,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I24" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M24" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P24" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R24" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,13 +32862,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J25" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L25" t="n">
         <v>33.45266236174709</v>
@@ -32883,19 +32883,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R25" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262827</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126651</v>
@@ -32947,16 +32947,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K26" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M26" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O26" t="n">
         <v>84.51705345749703</v>
@@ -32965,16 +32965,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R26" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S26" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U26" t="n">
         <v>0.04012947022634897</v>
@@ -33020,43 +33020,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I27" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M27" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P27" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R27" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,13 +33099,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J28" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L28" t="n">
         <v>33.45266236174709</v>
@@ -33120,19 +33120,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R28" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262827</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126651</v>
@@ -33184,16 +33184,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K29" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M29" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O29" t="n">
         <v>84.51705345749703</v>
@@ -33202,16 +33202,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R29" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S29" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U29" t="n">
         <v>0.04012947022634897</v>
@@ -33257,43 +33257,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I30" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M30" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P30" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R30" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,13 +33336,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J31" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L31" t="n">
         <v>33.45266236174709</v>
@@ -33357,19 +33357,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R31" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262827</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126651</v>
@@ -33421,16 +33421,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K32" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M32" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O32" t="n">
         <v>84.51705345749703</v>
@@ -33439,16 +33439,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R32" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S32" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U32" t="n">
         <v>0.04012947022634897</v>
@@ -33494,43 +33494,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I33" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M33" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P33" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R33" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,13 +33573,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J34" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L34" t="n">
         <v>33.45266236174709</v>
@@ -33594,19 +33594,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R34" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262827</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126651</v>
@@ -33658,16 +33658,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K35" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M35" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O35" t="n">
         <v>84.51705345749703</v>
@@ -33676,16 +33676,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R35" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S35" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U35" t="n">
         <v>0.04012947022634897</v>
@@ -33731,43 +33731,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I36" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M36" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P36" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R36" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,13 +33810,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J37" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L37" t="n">
         <v>33.45266236174709</v>
@@ -33831,19 +33831,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R37" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262827</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126651</v>
@@ -33895,16 +33895,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K38" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M38" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O38" t="n">
         <v>84.51705345749703</v>
@@ -33913,16 +33913,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R38" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S38" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U38" t="n">
         <v>0.04012947022634897</v>
@@ -33968,43 +33968,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I39" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M39" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P39" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R39" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,13 +34047,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J40" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L40" t="n">
         <v>33.45266236174709</v>
@@ -34068,19 +34068,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R40" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262827</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126651</v>
@@ -34132,16 +34132,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K41" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M41" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O41" t="n">
         <v>84.51705345749703</v>
@@ -34150,16 +34150,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R41" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S41" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U41" t="n">
         <v>0.04012947022634897</v>
@@ -34205,43 +34205,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I42" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M42" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P42" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R42" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,13 +34284,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J43" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L43" t="n">
         <v>33.45266236174709</v>
@@ -34305,19 +34305,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R43" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262827</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293622</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126651</v>
@@ -34369,16 +34369,16 @@
         <v>42.57423279529488</v>
       </c>
       <c r="K44" t="n">
-        <v>63.8077387288118</v>
+        <v>63.80773872881179</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930715</v>
       </c>
       <c r="M44" t="n">
         <v>88.07979798603007</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203775</v>
       </c>
       <c r="O44" t="n">
         <v>84.51705345749703</v>
@@ -34387,16 +34387,16 @@
         <v>72.13334975483464</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882058</v>
       </c>
       <c r="R44" t="n">
         <v>31.50978542632371</v>
       </c>
       <c r="S44" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U44" t="n">
         <v>0.04012947022634897</v>
@@ -34442,43 +34442,43 @@
         <v>2.592077475566876</v>
       </c>
       <c r="I45" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018441</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684182</v>
+        <v>43.33901744684181</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422261</v>
       </c>
       <c r="M45" t="n">
         <v>68.0037764593544</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782757</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P45" t="n">
         <v>51.25062176713472</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R45" t="n">
         <v>16.66369152775872</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898143</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,13 +34521,13 @@
         <v>2.000532211678407</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615715</v>
+        <v>6.766626335615714</v>
       </c>
       <c r="J46" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L46" t="n">
         <v>33.45266236174709</v>
@@ -34542,19 +34542,19 @@
         <v>31.80396199097737</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424315</v>
       </c>
       <c r="R46" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225467</v>
+        <v>0.9614009606225465</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262827</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068236</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35416,19 +35416,19 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N11" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O11" t="n">
         <v>235.2190232985557</v>
       </c>
       <c r="P11" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427578</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
-        <v>114.5156710484509</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>35.43843405129815</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.26553851340486</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>120.5276612791233</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>95.59325649761894</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851004</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526133</v>
+        <v>64.39597107526141</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N15" t="n">
-        <v>325.644323977266</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>156.0362414140446</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340483</v>
+        <v>54.26553851340486</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>124.1896181673922</v>
       </c>
       <c r="N16" t="n">
         <v>210.2812465399398</v>
@@ -35820,7 +35820,7 @@
         <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
-        <v>73.82694220684515</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>167.863300254996</v>
       </c>
       <c r="L17" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397707</v>
       </c>
       <c r="M17" t="n">
         <v>307.2470982515898</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
@@ -35969,19 +35969,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>221.2891269264855</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3551970507805</v>
+        <v>24.60426532046184</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L19" t="n">
         <v>61.04268762206323</v>
@@ -36057,7 +36057,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>180.1232894827319</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
@@ -36218,7 +36218,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0.04212540815677295</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L22" t="n">
         <v>61.04268762206323</v>
@@ -36294,7 +36294,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.6249434406831</v>
+        <v>30.62494344068236</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36443,19 +36443,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241749</v>
+        <v>10.16047399767016</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927416</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.21459538438877</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L25" t="n">
         <v>61.04268762206323</v>
@@ -36531,7 +36531,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809467</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.59299775914425</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9164924456674</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005153</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M28" t="n">
-        <v>98.95838474599259</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N28" t="n">
         <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>56.38908990501704</v>
+        <v>64.19817900192842</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238787</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>180.6690037191344</v>
       </c>
       <c r="K29" t="n">
-        <v>317.9073605334481</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
         <v>457.2911585300419</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362609</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.360211686809467</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215333</v>
+        <v>16.95388906581967</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206323</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>166.2790147034433</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N31" t="n">
-        <v>78.5646455072272</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
         <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100083</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224495003</v>
       </c>
       <c r="Q32" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362636</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F34" t="n">
         <v>4.623012255520763</v>
@@ -37230,22 +37230,22 @@
         <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206323</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913874</v>
+        <v>89.29668759834992</v>
       </c>
       <c r="N34" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501704</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.48035347753706</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>380.4238384241748</v>
       </c>
       <c r="N36" t="n">
-        <v>259.8681564695858</v>
+        <v>180.1232894827317</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37403,7 +37403,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L37" t="n">
         <v>61.04268762206323</v>
@@ -37479,7 +37479,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="N39" t="n">
-        <v>284.4784865335122</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
@@ -37640,7 +37640,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>24.65245547208347</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L40" t="n">
         <v>61.04268762206323</v>
@@ -37716,7 +37716,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604392</v>
+        <v>29.76276805604389</v>
       </c>
       <c r="J41" t="n">
-        <v>76.77980871768978</v>
+        <v>78.49738634065108</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37786,7 +37786,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N41" t="n">
         <v>297.438882017431</v>
@@ -37801,10 +37801,10 @@
         <v>44.17844238427578</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>284.6633758273634</v>
+        <v>48.92439283462225</v>
       </c>
       <c r="M42" t="n">
         <v>391.574806287336</v>
@@ -37874,7 +37874,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q42" t="n">
         <v>104.3551970507805</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L43" t="n">
         <v>61.04268762206323</v>
@@ -37953,7 +37953,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604392</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.77980871768978</v>
+        <v>30.62494344068236</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38023,7 +38023,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N44" t="n">
         <v>297.438882017431</v>
@@ -38032,16 +38032,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710477</v>
+        <v>240.3342731270602</v>
       </c>
       <c r="Q44" t="n">
         <v>44.17844238427578</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>73.53472289854878</v>
       </c>
       <c r="M45" t="n">
         <v>391.574806287336</v>
@@ -38114,7 +38114,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.68178252265609</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215329</v>
       </c>
       <c r="L46" t="n">
         <v>61.04268762206323</v>
@@ -38190,7 +38190,7 @@
         <v>56.38908990501704</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
